--- a/notebooks/jesuita_entrada_Coimbra_places_of_stay_no_wikidata.xlsx
+++ b/notebooks/jesuita_entrada_Coimbra_places_of_stay_no_wikidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -706,26 +706,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sian (Si-ngan fou) (residência)</t>
+          <t>Tonquim</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16310000</t>
+          <t>17250000&gt;</t>
         </is>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1652</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1198</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>extra_info: {"value": {"comment": "reclam\u00e9 par la Propagande"}}</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -735,36 +739,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>jesuita-votos-local</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tchö-kiang</t>
+          <t>Tonquim («in sacello S. J.»)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16171002</t>
+          <t>16380106</t>
         </is>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>689</v>
+        <v>747</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>deh-gabriel-de-magalhaes</t>
+          <t>deh-goncalo-alvares</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -774,36 +778,40 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gabriel de Magalhães</t>
+          <t>Gonçalo Álvares</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tong-t'ang, Pequim</t>
+          <t>[A caminho do Japão]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16550000</t>
+          <t>15730700</t>
         </is>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>246</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>702</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>morre afogado com quatro companheiros no caminho da China para o Japão extra_info: {"value": {"comment": "vindo da China"}}</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-pedro-martins</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -813,40 +821,40 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>Pedro Martins</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>estadia</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>[No mar, a caminho de Malaca]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17250000&gt;</t>
+          <t>15980213</t>
         </is>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1198</v>
+        <v>819</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>extra_info: {"value": {"comment": "reclam\u00e9 par la Propagande"}}</t>
+          <t>extra_info: {"date": {"comment": "=morre de febre \u00abcalenturas\u00bb foi enterrado em Malaca em 15980218"}, "value": {"comment": "40 l\u00e9guas antes de desembarcar"}}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-afonso-aires</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -856,36 +864,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Afonso Aires</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jesuita-votos-local</t>
+          <t>morte</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tonquim («in sacello S. J.»)</t>
+          <t>[No mar, depois do Cabo da Boa Esperança]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16380106</t>
+          <t>16570000</t>
         </is>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>747</v>
+        <v>191</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-alvares</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -895,7 +903,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gonçalo Álvares</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -905,23 +913,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[A caminho do Japão]</t>
+          <t>[Perto de Hainan]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15730700</t>
+          <t>16460226</t>
         </is>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>702</v>
+        <v>748</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>morre afogado com quatro companheiros no caminho da China para o Japão extra_info: {"value": {"comment": "vindo da China"}}</t>
+          <t>extra_info: {"value": {"comment": "naufr\u00e1gio, a caminho de Tonquim"}}</t>
         </is>
       </c>
     </row>
@@ -943,35 +951,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>estadia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[No mar, a caminho de Malaca]</t>
+          <t>[Perto de Moçambique]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15980213</t>
+          <t>15840000&gt;</t>
         </is>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>extra_info: {"date": {"comment": "=morre de febre \u00abcalenturas\u00bb foi enterrado em Malaca em 15980218"}, "value": {"comment": "40 l\u00e9guas antes de desembarcar"}}</t>
+          <t>naufrágio</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>deh-afonso-aires</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -981,195 +989,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Afonso Aires</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>morte</t>
+          <t>jesuita-votos-local</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[No mar, depois do Cabo da Boa Esperança]</t>
+          <t>«in pago Ke Sat»</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16570000</t>
+          <t>17000202</t>
         </is>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>deh-gaspar-do-amaral</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Gaspar do Amaral</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>morte</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[Perto de Hainan]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>16460226</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>748</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "naufr\u00e1gio, a caminho de Tonquim"}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>deh-pedro-martins</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Pedro Martins</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>estadia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[Perto de Moçambique]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>15840000&gt;</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>805</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>naufrágio</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>deh-francisco-pinto-i</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Francisco Pinto</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>jesuita-votos-local</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>«Cinanfu» (Tsinan), Shangtung</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>16950815</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1351</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>deh-estanislau-machado</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Estanislau Machado</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>jesuita-votos-local</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>«in pago Ke Sat»</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>17000202</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>39</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
